--- a/xboost/com.xboost.business/src/main/webapp/static/excelTemplate/deport.xlsx
+++ b/xboost/com.xboost.business/src/main/webapp/static/excelTemplate/deport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20565" windowHeight="6780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>序号</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
     <t>网点</t>
   </si>
   <si>
@@ -40,6 +43,12 @@
     <t>网点类型</t>
   </si>
   <si>
+    <t>指定集散点</t>
+  </si>
+  <si>
+    <t>night distrb</t>
+  </si>
+  <si>
     <t>停货车数(辆)停车(10分钟停靠能力）</t>
   </si>
   <si>
@@ -47,9 +56,6 @@
   </si>
   <si>
     <t>单一批量操作处理量上限(以一个班次操作为单位)</t>
-  </si>
-  <si>
-    <t>指定集散点</t>
   </si>
   <si>
     <t>571AA</t>
@@ -90,10 +96,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -125,14 +131,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,24 +167,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,6 +199,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -201,54 +252,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,175 +289,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,6 +505,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -514,16 +531,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -555,32 +581,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -588,11 +588,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,10 +610,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -616,137 +622,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -776,6 +782,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1128,27 +1137,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6666666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="48" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.1666666666667" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.83333333333333" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6666666666667" style="1" customWidth="1"/>
-    <col min="11" max="12" width="12.5" style="4" customWidth="1"/>
+    <col min="1" max="2" width="4.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="5" width="9" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="48" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.1666666666667" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.83333333333333" style="3" customWidth="1"/>
+    <col min="10" max="11" width="12.5" style="4" customWidth="1"/>
+    <col min="12" max="12" width="11" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6666666666667" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42.75" spans="1:12">
+    <row r="1" ht="42.75" spans="1:14">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1164,7 +1174,7 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
@@ -1173,131 +1183,143 @@
       <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:14">
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="7">
         <v>120.170195</v>
       </c>
-      <c r="D2" s="7">
+      <c r="E2" s="7">
         <v>30.272189</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="9">
+        <v>70</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="9">
-        <v>70</v>
-      </c>
-      <c r="H2" s="9" t="s">
+      <c r="K2" s="7"/>
+      <c r="L2" s="7">
         <v>1</v>
       </c>
-      <c r="I2" s="7">
-        <v>1</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="9">
+      <c r="M2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="9">
         <v>4000</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:14">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="7">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="7">
         <v>120.165195</v>
       </c>
-      <c r="D3" s="7">
+      <c r="E3" s="7">
         <v>30.316784</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="9">
+      <c r="F3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="9">
         <v>400</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7">
         <v>1</v>
       </c>
-      <c r="I3" s="7">
-        <v>1</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="9">
+      <c r="M3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="9">
         <v>6000</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="7">
         <v>120.180033</v>
       </c>
-      <c r="D4" s="7">
+      <c r="E4" s="7">
         <v>30.283228</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="9">
+      <c r="F4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="9">
         <v>290</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="7">
-        <v>1</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="9">
+      <c r="M4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="9">
         <v>4000</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
